--- a/documents/design_document.xlsx
+++ b/documents/design_document.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naomi\Desktop\UNI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naomi\Desktop\UNI\Aventale Interactive\aventale-interactive-gam130\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E86633-4B58-40A0-9A8D-118BA34073B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1E81C8-A6B7-44D9-A0AB-038D8939FC7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B55EC6BF-FA38-47AF-9968-4D4850AC5ACB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Game mechanics" sheetId="1" r:id="rId1"/>
-    <sheet name="Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Game Data" sheetId="2" r:id="rId1"/>
+    <sheet name="Test Data" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="125">
   <si>
     <t>Spearman</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Castle</t>
   </si>
   <si>
-    <t>Fortifications</t>
-  </si>
-  <si>
     <t>Attack Power</t>
   </si>
   <si>
@@ -110,13 +107,313 @@
   </si>
   <si>
     <t>Can place up to a certain distance away from your castle, allowing for strategic blockades.</t>
+  </si>
+  <si>
+    <t>14th January 2020</t>
+  </si>
+  <si>
+    <t>Test 1</t>
+  </si>
+  <si>
+    <t>Stable</t>
+  </si>
+  <si>
+    <t>Range/Tower</t>
+  </si>
+  <si>
+    <t>Workshop</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Castle Placement</t>
+  </si>
+  <si>
+    <t>Money Gain:</t>
+  </si>
+  <si>
+    <t>Build Spawn:</t>
+  </si>
+  <si>
+    <t>Unit Spawn:</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>Per kill: 5</t>
+  </si>
+  <si>
+    <t>Per turn: 25</t>
+  </si>
+  <si>
+    <t>Start money: 200</t>
+  </si>
+  <si>
+    <t>Spawns in associated building</t>
+  </si>
+  <si>
+    <t>Spawn time: 1 turn</t>
+  </si>
+  <si>
+    <t>Spawn time: 2 turn</t>
+  </si>
+  <si>
+    <t>Instant buy: costs double</t>
+  </si>
+  <si>
+    <t>Test Results</t>
+  </si>
+  <si>
+    <t>-Catapult can seige too easily with castle 2 tiles from border.</t>
+  </si>
+  <si>
+    <t>-Movement is too slow.</t>
+  </si>
+  <si>
+    <t>-Player's getting too much money.</t>
+  </si>
+  <si>
+    <t>-Board is far too big.</t>
+  </si>
+  <si>
+    <t>Board Size:</t>
+  </si>
+  <si>
+    <t>20 x 20</t>
+  </si>
+  <si>
+    <t>Test 2</t>
+  </si>
+  <si>
+    <t>Per turn: 15</t>
+  </si>
+  <si>
+    <t>15 x 15</t>
+  </si>
+  <si>
+    <t>Spawn time: Instant</t>
+  </si>
+  <si>
+    <t>Per kill: N/A</t>
+  </si>
+  <si>
+    <t>Instant buy: N/A</t>
+  </si>
+  <si>
+    <t>This colour under variables helps identify changes.</t>
+  </si>
+  <si>
+    <t>-Board is still a bit too big.</t>
+  </si>
+  <si>
+    <t>This text under Test Data helps identify changes.</t>
+  </si>
+  <si>
+    <t>-Knight needs to be cheaper.</t>
+  </si>
+  <si>
+    <t>Test 3</t>
+  </si>
+  <si>
+    <t>-We found spawning units and buildings in made the game a lot longer.</t>
+  </si>
+  <si>
+    <t>-We found money might be a bit too complex to keep track of during the game.</t>
+  </si>
+  <si>
+    <t>Test 4</t>
+  </si>
+  <si>
+    <t>12 x 12</t>
+  </si>
+  <si>
+    <t>-Knight was also a bit too over-powered.</t>
+  </si>
+  <si>
+    <t>Starting Units:</t>
+  </si>
+  <si>
+    <t>Catapults: 1</t>
+  </si>
+  <si>
+    <t>Spearmen: 2</t>
+  </si>
+  <si>
+    <t>Archers: 2</t>
+  </si>
+  <si>
+    <t>Knights: 2</t>
+  </si>
+  <si>
+    <t>Spawn Data:</t>
+  </si>
+  <si>
+    <t>Max per turn: 2</t>
+  </si>
+  <si>
+    <t>Change Notes</t>
+  </si>
+  <si>
+    <t>-Reduced board size.</t>
+  </si>
+  <si>
+    <t>-Reduced how much player gets a turn.</t>
+  </si>
+  <si>
+    <t>-Removed money from kills.</t>
+  </si>
+  <si>
+    <t>-Instant unit spawn and removed instant buy.</t>
+  </si>
+  <si>
+    <t>-Increased Catapult movement from 1/2 to 1.</t>
+  </si>
+  <si>
+    <t>-Removed money mechanic from the game.</t>
+  </si>
+  <si>
+    <t>-Start with set starting units</t>
+  </si>
+  <si>
+    <t>-Can spawn up to max spawnable units a game, with a max spawn a turn.</t>
+  </si>
+  <si>
+    <t>Max Spawnable units: 10</t>
+  </si>
+  <si>
+    <t>-This gives game 2 objectives: destroy enemy castle or deplete army.</t>
+  </si>
+  <si>
+    <t>-Reduced health of Catapult and Knight units.</t>
+  </si>
+  <si>
+    <t>-Reduced cost of Knight.</t>
+  </si>
+  <si>
+    <t>-Removed buildings.</t>
+  </si>
+  <si>
+    <t>17th January 2020</t>
+  </si>
+  <si>
+    <t>Test 5</t>
+  </si>
+  <si>
+    <t>-Loses our main USP so we want to try work that back in to the game.</t>
+  </si>
+  <si>
+    <t>-Worked better than what we expected.</t>
+  </si>
+  <si>
+    <t>-Played a lot faster an was more fun to play.</t>
+  </si>
+  <si>
+    <t>Forts</t>
+  </si>
+  <si>
+    <t>-Added Forts, have a max per game and adds to max spawn a turn.</t>
+  </si>
+  <si>
+    <t>Fort Data:</t>
+  </si>
+  <si>
+    <t>-Increased attack power of the Spearman and Archer.</t>
+  </si>
+  <si>
+    <t>-Decreased the health of the Knight.</t>
+  </si>
+  <si>
+    <t>-Forts boost health of castle when it is placed directly next to it.</t>
+  </si>
+  <si>
+    <t>-Buildings boost castle health when they're plced directly next to it.</t>
+  </si>
+  <si>
+    <t>-Buildings can only be placed a few tiles away from castle.</t>
+  </si>
+  <si>
+    <t>-Forts can be placed anywhere on your half of the map.</t>
+  </si>
+  <si>
+    <t>-You can put a unit in a fort to allow it to retaliate to enemy seige.</t>
+  </si>
+  <si>
+    <t>Castle health boost: 75%</t>
+  </si>
+  <si>
+    <t>Fort health reduction: 25%</t>
+  </si>
+  <si>
+    <t>-Local multiplayer: we need to think about intuitive controls for this.</t>
+  </si>
+  <si>
+    <t>-Half the game players have nothing to do on opponents turn.</t>
+  </si>
+  <si>
+    <t>-Maybe reduce the board size.</t>
+  </si>
+  <si>
+    <t>-Maybe Reduce max spawnable unit amount.</t>
+  </si>
+  <si>
+    <t>Test 6</t>
+  </si>
+  <si>
+    <t>Max Spawnable units: 6</t>
+  </si>
+  <si>
+    <t>Test 1:</t>
+  </si>
+  <si>
+    <t>Test 2:</t>
+  </si>
+  <si>
+    <t>40 Minutes</t>
+  </si>
+  <si>
+    <t>20 Minutes</t>
+  </si>
+  <si>
+    <t>Time  Taken:</t>
+  </si>
+  <si>
+    <t>Castle Destroyed</t>
+  </si>
+  <si>
+    <t>Win Method:</t>
+  </si>
+  <si>
+    <t>30 Minutes</t>
+  </si>
+  <si>
+    <t>Army Destroyed</t>
+  </si>
+  <si>
+    <t>-Reduced the maximum spawnable units.</t>
+  </si>
+  <si>
+    <t>-Catapults are now 1 x 1 in size.</t>
+  </si>
+  <si>
+    <t>-Maybe introduce a max amount of units at once on the board.</t>
+  </si>
+  <si>
+    <t>-The people who tested it found it fun and engaging.</t>
+  </si>
+  <si>
+    <t>Board size:</t>
+  </si>
+  <si>
+    <t>Max of two a game</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,8 +456,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,6 +522,60 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -216,7 +589,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -260,9 +633,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="12" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -272,13 +642,121 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,77 +1081,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{285818AE-2F3B-4F19-AE47-EB69A7E5DBEB}">
-  <dimension ref="A1:A10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C40039-D8C4-497C-BD03-8534292B2959}">
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="81.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C40039-D8C4-497C-BD03-8534292B2959}">
-  <dimension ref="A1:E23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,62 +1094,69 @@
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="6" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>64</v>
+      </c>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
@@ -746,7 +1165,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -755,7 +1174,7 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>0</v>
       </c>
@@ -763,7 +1182,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="16">
         <v>1</v>
@@ -772,7 +1191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>1</v>
       </c>
@@ -780,7 +1199,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="17">
         <v>1</v>
@@ -789,12 +1208,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="18">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C12" s="18">
         <v>5</v>
@@ -806,7 +1225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>3</v>
       </c>
@@ -816,54 +1235,57 @@
       <c r="C13" s="20">
         <v>25</v>
       </c>
-      <c r="D13" s="21">
-        <v>0.5</v>
+      <c r="D13" s="27">
+        <v>1</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="22">
         <v>200</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="24">
+        <v>92</v>
+      </c>
+      <c r="B16" s="23">
         <v>100</v>
       </c>
-      <c r="C16" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>13</v>
+      <c r="C16" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="70" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -871,7 +1293,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -908,9 +1330,2434 @@
         <v>1</v>
       </c>
     </row>
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="7">
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A21DF1-FA19-44B7-9E53-BC0F60D9E813}">
+  <dimension ref="A1:Y78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N51" sqref="N51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="8" max="10" width="2.7109375" customWidth="1"/>
+    <col min="11" max="11" width="2.85546875" customWidth="1"/>
+    <col min="12" max="12" width="2.7109375" customWidth="1"/>
+    <col min="13" max="14" width="15.140625" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" customWidth="1"/>
+    <col min="16" max="16" width="23.85546875" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" customWidth="1"/>
+    <col min="18" max="18" width="6.42578125" customWidth="1"/>
+    <col min="25" max="25" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+    </row>
+    <row r="3" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="H4" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="16">
+        <v>8</v>
+      </c>
+      <c r="C5" s="16">
+        <v>3</v>
+      </c>
+      <c r="D5" s="16">
+        <v>1</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="16">
+        <v>10</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="39"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="17">
+        <v>10</v>
+      </c>
+      <c r="C6" s="17">
+        <v>2</v>
+      </c>
+      <c r="D6" s="17">
+        <v>1</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="17">
+        <v>15</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="39"/>
+      <c r="O6" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="18">
+        <v>20</v>
+      </c>
+      <c r="C7" s="18">
+        <v>5</v>
+      </c>
+      <c r="D7" s="19">
+        <v>2</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="18">
+        <v>25</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="59">
+        <v>30</v>
+      </c>
+      <c r="C8" s="59">
+        <v>25</v>
+      </c>
+      <c r="D8" s="60">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="59">
+        <v>25</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S8" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="T8" s="38"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="43"/>
+      <c r="N9" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="22">
+        <v>200</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="35"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="35"/>
+      <c r="N10" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="23">
+        <v>100</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="23">
+        <v>75</v>
+      </c>
+      <c r="H11" s="43"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="43"/>
+      <c r="N11" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="42"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="30">
+        <v>100</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="30">
+        <v>50</v>
+      </c>
+      <c r="H12" s="35"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="35"/>
+      <c r="N12" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="42"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="32">
+        <v>100</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="32">
+        <v>75</v>
+      </c>
+      <c r="H13" s="43"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="43"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="42"/>
+    </row>
+    <row r="15" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="H16" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="N16" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="16">
+        <v>8</v>
+      </c>
+      <c r="C17" s="16">
+        <v>3</v>
+      </c>
+      <c r="D17" s="16">
+        <v>1</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="16">
+        <v>10</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17" s="39"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="17">
+        <v>10</v>
+      </c>
+      <c r="C18" s="17">
+        <v>2</v>
+      </c>
+      <c r="D18" s="17">
+        <v>1</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="17">
+        <v>15</v>
+      </c>
+      <c r="H18" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="N18" s="39"/>
+      <c r="O18" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="18">
+        <v>20</v>
+      </c>
+      <c r="C19" s="18">
+        <v>5</v>
+      </c>
+      <c r="D19" s="19">
+        <v>2</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="52">
+        <v>25</v>
+      </c>
+      <c r="H19" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="59">
+        <v>30</v>
+      </c>
+      <c r="C20" s="59">
+        <v>25</v>
+      </c>
+      <c r="D20" s="60">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="59">
+        <v>25</v>
+      </c>
+      <c r="H20" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S20" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="T20" s="38"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="43"/>
+      <c r="N21" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="42"/>
+      <c r="Y21" s="42"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="22">
+        <v>200</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="35"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="35"/>
+      <c r="N22" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="T22" s="42"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="42"/>
+      <c r="W22" s="42"/>
+      <c r="X22" s="42"/>
+      <c r="Y22" s="42"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="23">
+        <v>100</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="23">
+        <v>75</v>
+      </c>
+      <c r="H23" s="43"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="43"/>
+      <c r="N23" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="T23" s="42"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="42"/>
+      <c r="W23" s="42"/>
+      <c r="X23" s="42"/>
+      <c r="Y23" s="42"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="30">
+        <v>100</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="30">
+        <v>50</v>
+      </c>
+      <c r="H24" s="35"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="35"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="T24" s="42"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="42"/>
+      <c r="W24" s="42"/>
+      <c r="X24" s="42"/>
+      <c r="Y24" s="42"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="32">
+        <v>100</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="32">
+        <v>75</v>
+      </c>
+      <c r="H25" s="43"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="43"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="T25" s="42"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="42"/>
+      <c r="W25" s="42"/>
+      <c r="X25" s="42"/>
+      <c r="Y25" s="42"/>
+    </row>
+    <row r="27" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="H28" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="N28" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="O28" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="P28" s="54"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="16">
+        <v>8</v>
+      </c>
+      <c r="C29" s="16">
+        <v>3</v>
+      </c>
+      <c r="D29" s="16">
+        <v>1</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="16">
+        <v>10</v>
+      </c>
+      <c r="H29" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="N29" s="55"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="17">
+        <v>10</v>
+      </c>
+      <c r="C30" s="17">
+        <v>2</v>
+      </c>
+      <c r="D30" s="17">
+        <v>1</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="17">
+        <v>15</v>
+      </c>
+      <c r="H30" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="N30" s="55"/>
+      <c r="O30" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="49">
+        <v>15</v>
+      </c>
+      <c r="C31" s="18">
+        <v>5</v>
+      </c>
+      <c r="D31" s="19">
+        <v>2</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="49">
+        <v>20</v>
+      </c>
+      <c r="H31" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="N31" s="54"/>
+      <c r="O31" s="61"/>
+      <c r="P31" s="61"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="62">
+        <v>25</v>
+      </c>
+      <c r="C32" s="59">
+        <v>25</v>
+      </c>
+      <c r="D32" s="60">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="59">
+        <v>25</v>
+      </c>
+      <c r="H32" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S32" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="T32" s="38"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="43"/>
+      <c r="N33" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="O33" s="42"/>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="42"/>
+      <c r="R33" s="42"/>
+      <c r="S33" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="T33" s="42"/>
+      <c r="U33" s="42"/>
+      <c r="V33" s="42"/>
+      <c r="W33" s="42"/>
+      <c r="X33" s="42"/>
+      <c r="Y33" s="42"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="22">
+        <v>200</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="35"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="35"/>
+      <c r="N34" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="42"/>
+      <c r="S34" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="T34" s="42"/>
+      <c r="U34" s="42"/>
+      <c r="V34" s="42"/>
+      <c r="W34" s="42"/>
+      <c r="X34" s="42"/>
+      <c r="Y34" s="42"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="23">
+        <v>100</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="23">
+        <v>75</v>
+      </c>
+      <c r="H35" s="43"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="43"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="42"/>
+      <c r="R35" s="42"/>
+      <c r="S35" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="T35" s="42"/>
+      <c r="U35" s="42"/>
+      <c r="V35" s="42"/>
+      <c r="W35" s="42"/>
+      <c r="X35" s="42"/>
+      <c r="Y35" s="42"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A36" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="30">
+        <v>100</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="30">
+        <v>50</v>
+      </c>
+      <c r="H36" s="35"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="35"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="42"/>
+      <c r="R36" s="42"/>
+      <c r="S36" s="42"/>
+      <c r="T36" s="42"/>
+      <c r="U36" s="42"/>
+      <c r="V36" s="42"/>
+      <c r="W36" s="42"/>
+      <c r="X36" s="42"/>
+      <c r="Y36" s="42"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A37" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="32">
+        <v>100</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="32">
+        <v>75</v>
+      </c>
+      <c r="H37" s="43"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="43"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="42"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="42"/>
+      <c r="R37" s="42"/>
+      <c r="S37" s="42"/>
+      <c r="T37" s="42"/>
+      <c r="U37" s="42"/>
+      <c r="V37" s="42"/>
+      <c r="W37" s="42"/>
+      <c r="X37" s="42"/>
+      <c r="Y37" s="42"/>
+    </row>
+    <row r="39" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="H40" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" t="s">
+        <v>70</v>
+      </c>
+      <c r="N40" t="s">
+        <v>69</v>
+      </c>
+      <c r="O40" t="s">
+        <v>68</v>
+      </c>
+      <c r="P40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="16">
+        <v>8</v>
+      </c>
+      <c r="C41" s="16">
+        <v>3</v>
+      </c>
+      <c r="D41" s="16">
+        <v>1</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="N41" s="39"/>
+      <c r="O41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="17">
+        <v>10</v>
+      </c>
+      <c r="C42" s="17">
+        <v>2</v>
+      </c>
+      <c r="D42" s="17">
+        <v>1</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q42" s="36"/>
+      <c r="R42" s="36"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="18">
+        <v>15</v>
+      </c>
+      <c r="C43" s="18">
+        <v>5</v>
+      </c>
+      <c r="D43" s="19">
+        <v>2</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H43" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="I43" s="53"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="53"/>
+      <c r="M43" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="N43" s="54"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A44" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="59">
+        <v>25</v>
+      </c>
+      <c r="C44" s="59">
+        <v>25</v>
+      </c>
+      <c r="D44" s="57">
+        <v>1</v>
+      </c>
+      <c r="E44" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="41"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S44" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="T44" s="38"/>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="43"/>
+      <c r="N45" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="O45" s="42"/>
+      <c r="P45" s="42"/>
+      <c r="Q45" s="42"/>
+      <c r="R45" s="42"/>
+      <c r="S45" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="T45" s="42"/>
+      <c r="U45" s="42"/>
+      <c r="V45" s="42"/>
+      <c r="W45" s="42"/>
+      <c r="X45" s="42"/>
+      <c r="Y45" s="42"/>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="22">
+        <v>200</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="35"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="35"/>
+      <c r="N46" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="O46" s="42"/>
+      <c r="P46" s="42"/>
+      <c r="Q46" s="42"/>
+      <c r="R46" s="42"/>
+      <c r="S46" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="T46" s="42"/>
+      <c r="U46" s="42"/>
+      <c r="V46" s="42"/>
+      <c r="W46" s="42"/>
+      <c r="X46" s="42"/>
+      <c r="Y46" s="42"/>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H47" s="43"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="43"/>
+      <c r="N47" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="O47" s="42"/>
+      <c r="P47" s="42"/>
+      <c r="Q47" s="42"/>
+      <c r="R47" s="42"/>
+      <c r="S47" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="T47" s="42"/>
+      <c r="U47" s="42"/>
+      <c r="V47" s="42"/>
+      <c r="W47" s="42"/>
+      <c r="X47" s="42"/>
+      <c r="Y47" s="42"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H48" s="35"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="35"/>
+      <c r="N48" s="42"/>
+      <c r="O48" s="42"/>
+      <c r="P48" s="42"/>
+      <c r="Q48" s="42"/>
+      <c r="R48" s="42"/>
+      <c r="S48" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="T48" s="42"/>
+      <c r="U48" s="42"/>
+      <c r="V48" s="42"/>
+      <c r="W48" s="42"/>
+      <c r="X48" s="42"/>
+      <c r="Y48" s="42"/>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H49" s="43"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="43"/>
+      <c r="N49" s="42"/>
+      <c r="O49" s="42"/>
+      <c r="P49" s="42"/>
+      <c r="Q49" s="42"/>
+      <c r="R49" s="42"/>
+      <c r="S49" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="T49" s="42"/>
+      <c r="U49" s="42"/>
+      <c r="V49" s="42"/>
+      <c r="W49" s="42"/>
+      <c r="X49" s="42"/>
+      <c r="Y49" s="42"/>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="N50" s="63"/>
+      <c r="O50" s="63"/>
+      <c r="P50" s="63"/>
+      <c r="Q50" s="63"/>
+      <c r="R50" s="63"/>
+      <c r="S50" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="T50" s="63"/>
+      <c r="U50" s="63"/>
+      <c r="V50" s="63"/>
+      <c r="W50" s="63"/>
+      <c r="X50" s="63"/>
+      <c r="Y50" s="63"/>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A52" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" s="28"/>
+    </row>
+    <row r="54" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H54" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I54" s="38"/>
+      <c r="J54" s="38"/>
+      <c r="K54" s="38"/>
+      <c r="L54" s="38"/>
+      <c r="M54" s="36"/>
+      <c r="N54" s="36"/>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="H55" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="I55" s="37"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="37"/>
+      <c r="M55" t="s">
+        <v>70</v>
+      </c>
+      <c r="N55" t="s">
+        <v>69</v>
+      </c>
+      <c r="O55" t="s">
+        <v>68</v>
+      </c>
+      <c r="P55" t="s">
+        <v>67</v>
+      </c>
+      <c r="T55" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="U55" s="38"/>
+      <c r="V55" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="W55" s="38"/>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="16">
+        <v>8</v>
+      </c>
+      <c r="C56" s="66">
+        <v>4</v>
+      </c>
+      <c r="D56" s="16">
+        <v>1</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H56" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="N56" s="39"/>
+      <c r="O56" t="s">
+        <v>72</v>
+      </c>
+      <c r="S56" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="T56" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="U56" s="28"/>
+      <c r="V56" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="W56" s="28"/>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="17">
+        <v>10</v>
+      </c>
+      <c r="C57" s="65">
+        <v>3</v>
+      </c>
+      <c r="D57" s="17">
+        <v>1</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H57" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="I57" s="37"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="37"/>
+      <c r="L57" s="37"/>
+      <c r="M57" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="N57" s="39"/>
+      <c r="O57" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="P57" s="39"/>
+      <c r="Q57" s="36"/>
+      <c r="R57" s="36"/>
+      <c r="S57" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="T57" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="U57" s="28"/>
+      <c r="V57" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="W57" s="28"/>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="49">
+        <v>12</v>
+      </c>
+      <c r="C58" s="18">
+        <v>5</v>
+      </c>
+      <c r="D58" s="19">
+        <v>2</v>
+      </c>
+      <c r="E58" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H58" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="I58" s="53"/>
+      <c r="J58" s="53"/>
+      <c r="K58" s="53"/>
+      <c r="L58" s="53"/>
+      <c r="M58" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="N58" s="54"/>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A59" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="59">
+        <v>25</v>
+      </c>
+      <c r="C59" s="59">
+        <v>25</v>
+      </c>
+      <c r="D59" s="64">
+        <v>1</v>
+      </c>
+      <c r="E59" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="I59" s="41"/>
+      <c r="J59" s="41"/>
+      <c r="K59" s="41"/>
+      <c r="L59" s="41"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S59" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="T59" s="38"/>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="35"/>
+      <c r="L60" s="43"/>
+      <c r="N60" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="O60" s="42"/>
+      <c r="P60" s="42"/>
+      <c r="Q60" s="42"/>
+      <c r="R60" s="42"/>
+      <c r="S60" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="T60" s="42"/>
+      <c r="U60" s="42"/>
+      <c r="V60" s="42"/>
+      <c r="W60" s="42"/>
+      <c r="X60" s="42"/>
+      <c r="Y60" s="42"/>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="22">
+        <v>200</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" s="35"/>
+      <c r="I61" s="34"/>
+      <c r="J61" s="34"/>
+      <c r="K61" s="43"/>
+      <c r="L61" s="35"/>
+      <c r="N61" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="O61" s="42"/>
+      <c r="P61" s="42"/>
+      <c r="Q61" s="42"/>
+      <c r="R61" s="42"/>
+      <c r="S61" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="T61" s="42"/>
+      <c r="U61" s="42"/>
+      <c r="V61" s="42"/>
+      <c r="W61" s="42"/>
+      <c r="X61" s="42"/>
+      <c r="Y61" s="42"/>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A62" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B62" s="23">
+        <v>100</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" s="43"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="34"/>
+      <c r="K62" s="44"/>
+      <c r="L62" s="43"/>
+      <c r="N62" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="O62" s="42"/>
+      <c r="P62" s="42"/>
+      <c r="Q62" s="42"/>
+      <c r="R62" s="42"/>
+      <c r="S62" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="T62" s="42"/>
+      <c r="U62" s="42"/>
+      <c r="V62" s="42"/>
+      <c r="W62" s="42"/>
+      <c r="X62" s="42"/>
+      <c r="Y62" s="42"/>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H63" s="35"/>
+      <c r="I63" s="43"/>
+      <c r="J63" s="44"/>
+      <c r="K63" s="43"/>
+      <c r="L63" s="35"/>
+      <c r="N63" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="O63" s="42"/>
+      <c r="P63" s="42"/>
+      <c r="Q63" s="42"/>
+      <c r="R63" s="42"/>
+      <c r="S63" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="T63" s="42"/>
+      <c r="U63" s="42"/>
+      <c r="V63" s="42"/>
+      <c r="W63" s="42"/>
+      <c r="X63" s="42"/>
+      <c r="Y63" s="42"/>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H64" s="43"/>
+      <c r="I64" s="35"/>
+      <c r="J64" s="43"/>
+      <c r="K64" s="35"/>
+      <c r="L64" s="43"/>
+      <c r="N64" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="O64" s="42"/>
+      <c r="P64" s="42"/>
+      <c r="Q64" s="42"/>
+      <c r="R64" s="42"/>
+      <c r="S64" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="T64" s="42"/>
+      <c r="U64" s="42"/>
+      <c r="V64" s="42"/>
+      <c r="W64" s="42"/>
+      <c r="X64" s="42"/>
+      <c r="Y64" s="42"/>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="N65" s="63"/>
+      <c r="O65" s="63"/>
+      <c r="P65" s="63"/>
+      <c r="Q65" s="63"/>
+      <c r="R65" s="63"/>
+      <c r="S65" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="T65" s="63"/>
+      <c r="U65" s="63"/>
+      <c r="V65" s="63"/>
+      <c r="W65" s="63"/>
+      <c r="X65" s="63"/>
+      <c r="Y65" s="63"/>
+    </row>
+    <row r="67" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H67" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I67" s="38"/>
+      <c r="J67" s="38"/>
+      <c r="K67" s="38"/>
+      <c r="L67" s="38"/>
+      <c r="M67" s="36"/>
+      <c r="N67" s="36"/>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="H68" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="I68" s="37"/>
+      <c r="J68" s="37"/>
+      <c r="K68" s="37"/>
+      <c r="L68" s="37"/>
+      <c r="M68" t="s">
+        <v>70</v>
+      </c>
+      <c r="N68" t="s">
+        <v>69</v>
+      </c>
+      <c r="O68" t="s">
+        <v>68</v>
+      </c>
+      <c r="P68" t="s">
+        <v>67</v>
+      </c>
+      <c r="T68" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="U68" s="38"/>
+      <c r="V68" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="W68" s="38"/>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="16">
+        <v>8</v>
+      </c>
+      <c r="C69" s="67">
+        <v>4</v>
+      </c>
+      <c r="D69" s="16">
+        <v>1</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H69" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="I69" s="48"/>
+      <c r="J69" s="48"/>
+      <c r="K69" s="48"/>
+      <c r="L69" s="48"/>
+      <c r="M69" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="N69" s="69"/>
+      <c r="O69" t="s">
+        <v>72</v>
+      </c>
+      <c r="S69" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="T69" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="U69" s="28"/>
+      <c r="V69" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="W69" s="28"/>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A70" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70" s="17">
+        <v>10</v>
+      </c>
+      <c r="C70" s="68">
+        <v>3</v>
+      </c>
+      <c r="D70" s="17">
+        <v>1</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H70" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="I70" s="37"/>
+      <c r="J70" s="37"/>
+      <c r="K70" s="37"/>
+      <c r="L70" s="37"/>
+      <c r="M70" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="N70" s="39"/>
+      <c r="O70" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="P70" s="39"/>
+      <c r="Q70" s="36"/>
+      <c r="R70" s="36"/>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A71" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" s="52">
+        <v>12</v>
+      </c>
+      <c r="C71" s="18">
+        <v>5</v>
+      </c>
+      <c r="D71" s="19">
+        <v>2</v>
+      </c>
+      <c r="E71" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H71" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="I71" s="53"/>
+      <c r="J71" s="53"/>
+      <c r="K71" s="53"/>
+      <c r="L71" s="53"/>
+      <c r="M71" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="N71" s="54"/>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A72" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" s="59">
+        <v>25</v>
+      </c>
+      <c r="C72" s="59">
+        <v>25</v>
+      </c>
+      <c r="D72" s="64">
+        <v>1</v>
+      </c>
+      <c r="E72" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="I72" s="41"/>
+      <c r="J72" s="41"/>
+      <c r="K72" s="41"/>
+      <c r="L72" s="41"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S72" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="T72" s="38"/>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="21"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="H73" s="43"/>
+      <c r="I73" s="35"/>
+      <c r="J73" s="43"/>
+      <c r="K73" s="35"/>
+      <c r="L73" s="43"/>
+      <c r="N73" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="O73" s="42"/>
+      <c r="P73" s="42"/>
+      <c r="Q73" s="42"/>
+      <c r="R73" s="42"/>
+      <c r="S73" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="T73" s="42"/>
+      <c r="U73" s="42"/>
+      <c r="V73" s="42"/>
+      <c r="W73" s="42"/>
+      <c r="X73" s="42"/>
+      <c r="Y73" s="42"/>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A74" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" s="22">
+        <v>200</v>
+      </c>
+      <c r="C74" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" s="35"/>
+      <c r="I74" s="34"/>
+      <c r="J74" s="34"/>
+      <c r="K74" s="43"/>
+      <c r="L74" s="35"/>
+      <c r="N74" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="O74" s="42"/>
+      <c r="P74" s="42"/>
+      <c r="Q74" s="42"/>
+      <c r="R74" s="42"/>
+      <c r="S74" s="42"/>
+      <c r="T74" s="42"/>
+      <c r="U74" s="42"/>
+      <c r="V74" s="42"/>
+      <c r="W74" s="42"/>
+      <c r="X74" s="42"/>
+      <c r="Y74" s="42"/>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A75" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B75" s="23">
+        <v>100</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" s="43"/>
+      <c r="I75" s="34"/>
+      <c r="J75" s="34"/>
+      <c r="K75" s="44"/>
+      <c r="L75" s="43"/>
+      <c r="N75" s="42"/>
+      <c r="O75" s="42"/>
+      <c r="P75" s="42"/>
+      <c r="Q75" s="42"/>
+      <c r="R75" s="42"/>
+      <c r="S75" s="42"/>
+      <c r="T75" s="42"/>
+      <c r="U75" s="42"/>
+      <c r="V75" s="42"/>
+      <c r="W75" s="42"/>
+      <c r="X75" s="42"/>
+      <c r="Y75" s="42"/>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H76" s="35"/>
+      <c r="I76" s="43"/>
+      <c r="J76" s="44"/>
+      <c r="K76" s="43"/>
+      <c r="L76" s="35"/>
+      <c r="N76" s="42"/>
+      <c r="O76" s="42"/>
+      <c r="P76" s="42"/>
+      <c r="Q76" s="42"/>
+      <c r="R76" s="42"/>
+      <c r="S76" s="42"/>
+      <c r="T76" s="42"/>
+      <c r="U76" s="42"/>
+      <c r="V76" s="42"/>
+      <c r="W76" s="42"/>
+      <c r="X76" s="42"/>
+      <c r="Y76" s="42"/>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H77" s="43"/>
+      <c r="I77" s="35"/>
+      <c r="J77" s="43"/>
+      <c r="K77" s="35"/>
+      <c r="L77" s="43"/>
+      <c r="N77" s="42"/>
+      <c r="O77" s="42"/>
+      <c r="P77" s="42"/>
+      <c r="Q77" s="42"/>
+      <c r="R77" s="42"/>
+      <c r="S77" s="42"/>
+      <c r="T77" s="42"/>
+      <c r="U77" s="42"/>
+      <c r="V77" s="42"/>
+      <c r="W77" s="42"/>
+      <c r="X77" s="42"/>
+      <c r="Y77" s="42"/>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="N78" s="63"/>
+      <c r="O78" s="63"/>
+      <c r="P78" s="63"/>
+      <c r="Q78" s="63"/>
+      <c r="R78" s="63"/>
+      <c r="S78" s="63"/>
+      <c r="T78" s="63"/>
+      <c r="U78" s="63"/>
+      <c r="V78" s="63"/>
+      <c r="W78" s="63"/>
+      <c r="X78" s="63"/>
+      <c r="Y78" s="63"/>
+    </row>
+  </sheetData>
+  <mergeCells count="128">
+    <mergeCell ref="T69:U69"/>
+    <mergeCell ref="V69:W69"/>
+    <mergeCell ref="N78:R78"/>
+    <mergeCell ref="S78:Y78"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="V56:W56"/>
+    <mergeCell ref="V57:W57"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="T68:U68"/>
+    <mergeCell ref="V68:W68"/>
+    <mergeCell ref="N75:R75"/>
+    <mergeCell ref="S75:Y75"/>
+    <mergeCell ref="N76:R76"/>
+    <mergeCell ref="S76:Y76"/>
+    <mergeCell ref="N77:R77"/>
+    <mergeCell ref="S77:Y77"/>
+    <mergeCell ref="O70:P70"/>
+    <mergeCell ref="H71:L71"/>
+    <mergeCell ref="S72:T72"/>
+    <mergeCell ref="N73:R73"/>
+    <mergeCell ref="S73:Y73"/>
+    <mergeCell ref="N74:R74"/>
+    <mergeCell ref="S74:Y74"/>
+    <mergeCell ref="H67:L67"/>
+    <mergeCell ref="H68:L68"/>
+    <mergeCell ref="H69:L69"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="H70:L70"/>
+    <mergeCell ref="M70:N70"/>
+    <mergeCell ref="N64:R64"/>
+    <mergeCell ref="S64:Y64"/>
+    <mergeCell ref="N65:R65"/>
+    <mergeCell ref="S65:Y65"/>
+    <mergeCell ref="H57:L57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="N61:R61"/>
+    <mergeCell ref="S61:Y61"/>
+    <mergeCell ref="N62:R62"/>
+    <mergeCell ref="S62:Y62"/>
+    <mergeCell ref="N63:R63"/>
+    <mergeCell ref="S63:Y63"/>
+    <mergeCell ref="H55:L55"/>
+    <mergeCell ref="H56:L56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="H58:L58"/>
+    <mergeCell ref="S59:T59"/>
+    <mergeCell ref="N60:R60"/>
+    <mergeCell ref="S60:Y60"/>
+    <mergeCell ref="S48:Y48"/>
+    <mergeCell ref="S49:Y49"/>
+    <mergeCell ref="S50:Y50"/>
+    <mergeCell ref="N50:R50"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="H54:L54"/>
+    <mergeCell ref="S36:Y36"/>
+    <mergeCell ref="S37:Y37"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="S45:Y45"/>
+    <mergeCell ref="S46:Y46"/>
+    <mergeCell ref="S47:Y47"/>
+    <mergeCell ref="S24:Y24"/>
+    <mergeCell ref="S25:Y25"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="S33:Y33"/>
+    <mergeCell ref="S34:Y34"/>
+    <mergeCell ref="S35:Y35"/>
+    <mergeCell ref="S9:Y9"/>
+    <mergeCell ref="S10:Y10"/>
+    <mergeCell ref="S11:Y11"/>
+    <mergeCell ref="S12:Y12"/>
+    <mergeCell ref="S13:Y13"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="N47:R47"/>
+    <mergeCell ref="N48:R48"/>
+    <mergeCell ref="N49:R49"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="S21:Y21"/>
+    <mergeCell ref="S22:Y22"/>
+    <mergeCell ref="S23:Y23"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="N33:R33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="N21:R21"/>
+    <mergeCell ref="N22:R22"/>
+    <mergeCell ref="N23:R23"/>
+    <mergeCell ref="N24:R24"/>
+    <mergeCell ref="N25:R25"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="N10:R10"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="N12:R12"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
